--- a/data/Bundle_examples.xlsx
+++ b/data/Bundle_examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bundle_Example" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Bundle1</t>
   </si>
   <si>
-    <t>Restaurants</t>
-  </si>
-  <si>
     <t>Grocery</t>
   </si>
   <si>
@@ -39,14 +36,44 @@
     <t>Petrol</t>
   </si>
   <si>
-    <t>Pharmacy</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Bundle3</t>
+  </si>
+  <si>
+    <t>Bundle4</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Perfumery</t>
+  </si>
+  <si>
+    <t>Taxi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +88,30 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,15 +129,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,51 +517,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20">
+    <row r="1" spans="1:6" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/Bundle_examples.xlsx
+++ b/data/Bundle_examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bundle_Example" sheetId="1" r:id="rId1"/>
@@ -73,19 +73,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,6 +103,34 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,24 +179,33 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -520,7 +550,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -532,26 +562,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -612,26 +642,26 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="B9" s="5"/>
+      <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -699,7 +729,6 @@
     <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
